--- a/Результаты четверга.xlsx
+++ b/Результаты четверга.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0861803B-FD35-4EB3-997E-33CB0A326A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Для Al</t>
   </si>
@@ -51,11 +63,14 @@
   <si>
     <t>λ</t>
   </si>
+  <si>
+    <t>0,3 ж</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,20 +139,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -155,10 +170,2111 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10304396325459322"/>
+                  <c:y val="-9.6759259259259264E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20A0-4CA7-8077-354E7A9394BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="122283327"/>
+        <c:axId val="122290047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="122283327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122290047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="122290047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122283327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23168044619422573"/>
+          <c:y val="5.0925925925925923E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$H$6:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$6:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B34-43ED-8D89-2F32632E8115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6086176727909011E-2"/>
+                  <c:y val="-7.2580198308544772E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$H$6:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$J$6:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B34-43ED-8D89-2F32632E8115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="122283807"/>
+        <c:axId val="122285247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="122283807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122285247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="122285247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122283807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9596B3-536B-FFC8-ECB1-B2F1C52E39FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B0156D-C31D-31F0-0AC6-791F2956B62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,9 +2312,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +2349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +2384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -441,173 +2557,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6">
+      <c r="D4">
+        <f>C4-0.075</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2">
         <v>440</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="2">
         <v>670</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
+        <f>B5*0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.21</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5">
+        <f t="shared" ref="D5:D10" si="0">C5-0.075</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.22</v>
+      </c>
+      <c r="D6">
+        <f>0.22-0.05</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.08</v>
+      </c>
+      <c r="G6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <f>E6*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>F6-0.08</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>G6-0.005</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" ref="A7:A11" si="1">B7*0.1</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B7">
         <v>1.5</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D7">
+        <f>C8-0.075</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.11</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H10" si="2">E7*0.1</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I11" si="3">F7-0.08</f>
+        <v>0.185</v>
+      </c>
+      <c r="J7">
+        <f>G7-0.005</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0.36</v>
+      </c>
+      <c r="D8">
+        <f>C9-0.075</f>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
+      </c>
+      <c r="F8">
+        <v>0.24</v>
+      </c>
+      <c r="G8">
         <v>0.08</v>
       </c>
-      <c r="F6">
-        <v>5.0000000000000001E-3</v>
+      <c r="H8">
+        <f>E9*0.1</f>
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <f>F8-0.05</f>
+        <v>0.19</v>
+      </c>
+      <c r="J8">
+        <f>G8-0.005</f>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0.36</v>
-      </c>
-      <c r="D7">
-        <v>0.25</v>
-      </c>
-      <c r="E7">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.11</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.35</v>
+      </c>
+      <c r="D9">
+        <f>C11-0.075</f>
+        <v>0.40499999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.72</v>
+      </c>
+      <c r="G9">
+        <v>0.31</v>
+      </c>
+      <c r="H9">
+        <f>E10*0.1</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J7:J13" si="4">G9-0.005</f>
+        <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.3</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>0.35</v>
-      </c>
-      <c r="D8">
+      <c r="C10">
+        <v>0.32</v>
+      </c>
+      <c r="D10">
+        <f>C10-0.05</f>
+        <v>0.27</v>
+      </c>
+      <c r="E10">
+        <v>0.75</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.38</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H11" si="5">E11*0.1</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="I10">
+        <f>F10-0.08</f>
+        <v>0.92</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f>B11*0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.48</v>
+      </c>
+      <c r="D11">
+        <f>C11-0.075</f>
+        <v>0.40499999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.75</v>
+      </c>
+      <c r="F11">
+        <v>0.74</v>
+      </c>
+      <c r="G11">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11">
+        <f>F11-0.05</f>
+        <v>0.69</v>
+      </c>
+      <c r="J11">
+        <f>G11-0.005</f>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f>B12*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="E8">
-        <v>0.72</v>
-      </c>
-      <c r="F8">
-        <v>0.31</v>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.42</v>
+      </c>
+      <c r="D12">
+        <f>C12-0.075</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.79</v>
+      </c>
+      <c r="G12">
+        <v>0.34</v>
+      </c>
+      <c r="I12">
+        <f>F14-0.08</f>
+        <v>0.66</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0.48</v>
-      </c>
-      <c r="D9">
-        <v>0.75</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.38</v>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0.42</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.79</v>
-      </c>
-      <c r="F10">
-        <v>0.34</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0.74</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>